--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JN\GitHub\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E7EFF7-58FF-4970-925E-4FD1E3BD9881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503EC82-F624-4F66-8ED8-C28BA84A6F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="개선노트" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유지보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Player</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,15 +137,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버그 발생 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>버그 수정 일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개선 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 확인 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -392,21 +392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -428,126 +413,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -696,221 +561,246 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1184,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H1:H1048576"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
@@ -1201,351 +1091,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>45910</v>
+      </c>
+      <c r="D5" s="24">
+        <v>45910</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="38">
-        <v>45910</v>
-      </c>
-      <c r="D5" s="38">
-        <v>45910</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="21" t="s">
+      <c r="H21" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="H13:H18"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="H5:H10"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="H21:H26"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B19:H19"/>
     <mergeCell ref="G5:G10"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,7 +1447,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1570,122 +1459,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="56" t="s">
+      <c r="D3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="60" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JN\GitHub\FarmMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3503EC82-F624-4F66-8ED8-C28BA84A6F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB63736-A42A-4706-8196-465AB671DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>프로그래밍 스크립트 기록 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>미정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniMapController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 상단에 위치한 미니맵 생성 및 관리 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniMapCamera</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,11 +640,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,12 +708,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,15 +720,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,54 +727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +747,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1076,8 +1103,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,350 +1118,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="54">
         <v>45910</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="54">
         <v>45910</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="23">
+        <v>45910</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="27" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H14" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="27" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="H5:H11"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="C5:C10"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685AB82-00F1-47E7-9AB4-FF125FE0FF6C}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1459,122 +1497,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="53"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="54"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="54"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="54"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="54"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="54"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="54"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="62"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="63"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JN\GitHub\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB63736-A42A-4706-8196-465AB671DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4352B2-D77B-4960-8797-474E832B730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>프로그래밍 스크립트 기록 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>MiniMapCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp 관리 스크립트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 및 동물 오브젝트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -636,11 +648,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,21 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,6 +755,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,24 +818,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,10 +848,16 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H11"/>
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,41 +1144,41 @@
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1172,25 +1204,25 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="47">
         <v>45910</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="47">
         <v>45910</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="44" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1198,141 +1230,151 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="13"/>
       <c r="E9" s="18"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="13"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67" t="s">
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="23">
+      <c r="C11" s="58"/>
+      <c r="D11" s="41">
         <v>45910</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="40">
+        <v>45911</v>
+      </c>
+      <c r="D12" s="40">
+        <v>45911</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="51" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H15" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
@@ -1340,8 +1382,8 @@
       <c r="D16" s="13"/>
       <c r="E16" s="21"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -1349,8 +1391,8 @@
       <c r="D17" s="13"/>
       <c r="E17" s="21"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -1358,73 +1400,73 @@
       <c r="D18" s="13"/>
       <c r="E18" s="21"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="24" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H23" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
@@ -1432,8 +1474,8 @@
       <c r="D24" s="13"/>
       <c r="E24" s="21"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -1441,8 +1483,8 @@
       <c r="D25" s="13"/>
       <c r="E25" s="21"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -1450,29 +1492,36 @@
       <c r="D26" s="13"/>
       <c r="E26" s="21"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="H5:H11"/>
+  <mergeCells count="7">
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="C5:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1497,122 +1546,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="40"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="40"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JN\GitHub\FarmMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4352B2-D77B-4960-8797-474E832B730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B3453-620E-4615-A17A-BE2FF800BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>프로그래밍 스크립트 기록 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,11 +169,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hp 관리 스크립트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 및 동물 오브젝트</t>
+    <t>LevelManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP관리 (플레이어, 동물, 적, 기타 오브젝트) 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 레벨 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -659,11 +667,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,76 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +811,84 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1204,25 +1234,25 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="58">
         <v>45910</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="58">
         <v>45910</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="64" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1230,160 +1260,168 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="13"/>
       <c r="E9" s="18"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="13"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="41">
         <v>45910</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="48" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="73">
         <v>45911</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="44">
         <v>45911</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="40">
+        <v>45911</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="59" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+    </row>
+    <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="37" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H16" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -1412,70 +1450,70 @@
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="37" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H24" s="37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -1504,24 +1542,34 @@
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G5:G13"/>
+    <mergeCell ref="H5:H13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,18 +1594,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B3453-620E-4615-A17A-BE2FF800BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9ACECE-77D1-4DB2-8C0F-30E00FE2B552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>프로그래밍 스크립트 기록 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>박예성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘텐츠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,6 +178,14 @@
   </si>
   <si>
     <t>플레이어 레벨 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 - 농작, 요리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 - 포획, 퀘스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,6 +861,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,12 +892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,7 +1170,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E18" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -1230,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
@@ -1244,15 +1248,15 @@
         <v>45910</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="66" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1263,13 +1267,13 @@
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
       <c r="E6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -1278,13 +1282,13 @@
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
       <c r="E7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -1293,13 +1297,13 @@
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
       <c r="E8" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -1309,8 +1313,8 @@
       <c r="D9" s="13"/>
       <c r="E9" s="18"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -1320,65 +1324,65 @@
       <c r="D10" s="13"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="41">
         <v>45910</v>
       </c>
       <c r="E11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="73">
+        <v>34</v>
+      </c>
+      <c r="C12" s="64">
         <v>45911</v>
       </c>
       <c r="D12" s="44">
         <v>45911</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="74"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="65"/>
       <c r="D13" s="40">
         <v>45911</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="61" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -1392,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>8</v>
@@ -1407,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1470,11 +1474,13 @@
     </row>
     <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="24"/>
@@ -1484,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
@@ -1499,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1509,10 +1515,10 @@
       <c r="E24" s="20"/>
       <c r="F24" s="17"/>
       <c r="G24" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1594,28 +1600,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>11</v>

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9ACECE-77D1-4DB2-8C0F-30E00FE2B552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E1B89-389E-4194-B78A-CF9AE3F9A859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>프로그래밍 스크립트 기록 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>임재남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(김소명)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개선 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,10 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MiniMapController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,11 +169,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>콘텐츠 - 농작, 요리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘텐츠 - 포획, 퀘스트</t>
+    <t>StaminaManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경(야생동물, 야생채집물)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 및 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설물(집, 풍차 시스템,  경작)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimalManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuntingHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemObjectConditioner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경작물 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 가축을 포획하거나 적 개체랑 싸울 때 (가칭)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 개체를 소환시키거나 파괴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포획되지 않은 야생동물을 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가축 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재, 석재 등 채집물들의 오브젝트 자체를 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재, 석재 등이 아이템화 된 것들을 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소명
+박예성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,20 +804,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,28 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,6 +840,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,6 +935,52 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1258,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,42 +1272,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -1234,169 +1322,173 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="53">
         <v>45910</v>
       </c>
-      <c r="D5" s="58">
-        <v>45910</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="66" t="s">
+      <c r="D5" s="38">
+        <v>45911</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="66" t="s">
-        <v>15</v>
+      <c r="H5" s="76" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="59">
+        <v>45910</v>
+      </c>
       <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="84"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="59"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="54"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="40">
+        <v>45910</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="84"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="41">
-        <v>45910</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>32</v>
+      <c r="C11" s="59">
+        <v>45911</v>
+      </c>
+      <c r="D11" s="40">
+        <v>45911</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="64">
+      <c r="B12" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="39">
         <v>45911</v>
       </c>
-      <c r="D12" s="44">
+      <c r="E12" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="74">
         <v>45911</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="40">
-        <v>45911</v>
-      </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>8</v>
@@ -1411,86 +1503,110 @@
         <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>13</v>
+      <c r="G16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="82" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="81" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="83" t="s">
+        <v>53</v>
+      </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="B22" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
@@ -1505,57 +1621,67 @@
         <v>12</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>25</v>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="80">
+        <v>45911</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
@@ -1563,19 +1689,20 @@
       <c r="D29" s="14"/>
       <c r="E29" s="19"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="G5:G13"/>
     <mergeCell ref="H5:H13"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,122 +1727,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="35"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="35"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="35"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E1B89-389E-4194-B78A-CF9AE3F9A859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA611CC-F0E8-496C-931D-1D9FE4C4BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>프로그래밍 스크립트 기록 노트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,141 +108,154 @@
   </si>
   <si>
     <t>생성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록 관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선 노트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 확인 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniMapController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 상단에 위치한 미니맵 생성 및 관리 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniMapCamera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP관리 (플레이어, 동물, 적, 기타 오브젝트) 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 레벨 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경(야생동물, 야생채집물)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 및 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설물(집, 풍차 시스템,  경작)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimalManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuntingHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemObjectConditioner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경작물 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 가축을 포획하거나 적 개체랑 싸울 때 (가칭)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StockManager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 개체를 소환시키거나 파괴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포획되지 않은 야생동물을 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가축 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재, 석재 등 채집물들의 오브젝트 자체를 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재, 석재 등이 아이템화 된 것들을 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소명
+박예성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 기절 상태일 때 시간 흐름이 제대로 진행되지 않던 현상 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임재남(캐릭터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침으로 전환 시 스테미너 회복이 원활히 진행되지 않은 점 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 플레이어 이동 (GetAxis - Horizontal, Vertical) : WASD
 2. 점프 : Space
-3. 좌우 로테이션 값 조정(메인 카메라 자식 오브젝트로)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록 관리자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개선 노트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버그 수정 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개선 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버그 확인 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniMapController</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 상단에 위치한 미니맵 생성 및 관리 시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniMapCamera</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpController</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>범용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP관리 (플레이어, 동물, 적, 기타 오브젝트) 시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 레벨 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaminaManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김소명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경(야생동물, 야생채집물)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 및 시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시설물(집, 풍차 시스템,  경작)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimalManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HuntingHelper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemObjectConditioner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경작물 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 가축을 포획하거나 적 개체랑 싸울 때 (가칭)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StockManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 개체를 소환시키거나 파괴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포획되지 않은 야생동물을 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가축 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목재, 석재 등 채집물들의 오브젝트 자체를 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목재, 석재 등이 아이템화 된 것들을 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김소명
-박예성</t>
+3. 좌우 로테이션 값 조정(메인 카메라 자식 오브젝트로)
+4. 취침이나 기절 시 이동 제한과 함께 컷신으로 전환되며 다음날 아침으로 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -683,19 +696,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -745,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,28 +810,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,84 +849,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,33 +867,126 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,7 +1264,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,35 +1278,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1322,38 +1328,38 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="51">
         <v>45910</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="29">
         <v>45911</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="76" t="s">
-        <v>54</v>
+      <c r="H5" s="68" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="59">
+      <c r="C6" s="52"/>
+      <c r="D6" s="54">
         <v>45910</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -1362,126 +1368,126 @@
       <c r="F6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="84"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="84"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="13"/>
       <c r="E9" s="20"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="31">
+        <v>45910</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="40">
-        <v>45910</v>
-      </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="54">
+        <v>45911</v>
+      </c>
+      <c r="D11" s="31">
+        <v>45911</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="69"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C12" s="52"/>
+      <c r="D12" s="30">
         <v>45911</v>
       </c>
-      <c r="D11" s="40">
-        <v>45911</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="84"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="70" t="s">
+      <c r="F12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="39">
-        <v>45911</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="74">
+        <v>35</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="39">
         <v>45911</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="85"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="B14" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
@@ -1503,103 +1509,103 @@
         <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="37" t="s">
-        <v>47</v>
+      <c r="E16" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="42" t="s">
-        <v>37</v>
+      <c r="H16" s="33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="82" t="s">
-        <v>51</v>
+      <c r="E17" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="81" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="13"/>
       <c r="E18" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="13"/>
       <c r="E19" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="13"/>
       <c r="E20" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="83" t="s">
-        <v>53</v>
+      <c r="E21" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="B22" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
@@ -1621,27 +1627,27 @@
         <v>12</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="80">
+      <c r="C24" s="38"/>
+      <c r="D24" s="41">
         <v>45911</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="41" t="s">
+      <c r="G24" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1651,8 +1657,8 @@
       <c r="D25" s="13"/>
       <c r="E25" s="20"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1662,8 +1668,8 @@
       <c r="D26" s="13"/>
       <c r="E26" s="20"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -1671,8 +1677,8 @@
       <c r="D27" s="13"/>
       <c r="E27" s="20"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
@@ -1680,8 +1686,8 @@
       <c r="D28" s="13"/>
       <c r="E28" s="20"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
@@ -1689,8 +1695,8 @@
       <c r="D29" s="14"/>
       <c r="E29" s="19"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1712,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685AB82-00F1-47E7-9AB4-FF125FE0FF6C}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1727,126 +1733,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="51">
+        <v>45911</v>
+      </c>
+      <c r="C4" s="51">
+        <v>45911</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="78"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="78"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="78"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="78"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="78"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="78"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="78"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="31"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="78"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="78"/>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="32"/>
-    </row>
+      <c r="B18" s="79"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="80"/>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로그래밍 스크립트 일지.xlsx
+++ b/프로그래밍 스크립트 일지.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JN\GitHub\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA611CC-F0E8-496C-931D-1D9FE4C4BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E554D85-C4FC-4091-BE28-40CE10B2D52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로그래밍 스크립트 기록_시스템" sheetId="1" r:id="rId1"/>
@@ -87,14 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상하 플레이어 뷰 로테이션 값 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerRot(&lt;Player)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 위치 값에 따라 스카이 돔 오브젝트 위치 동기화(Y값 제외)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -252,10 +244,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.상하 플레이어 뷰 로테이션 값 조정
+2. 플레이어 좌우 뷰 로테이션 값 조정기능 추가
+3. 플레이어 위치 동기화 기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerRot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 플레이어 이동 (GetAxis - Horizontal, Vertical) : WASD
 2. 점프 : Space
-3. 좌우 로테이션 값 조정(메인 카메라 자식 오브젝트로)
-4. 취침이나 기절 시 이동 제한과 함께 컷신으로 전환되며 다음날 아침으로 진행</t>
+3. 달리기 : LShift
+4. 좌우 로테이션 값 조정(메인 카메라 자식 오브젝트로)
+5. 취침이나 기절 시 이동 제한과 함께 컷신으로 전환되며 다음날 아침으로 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,12 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,6 +874,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,18 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,7 +1270,7 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1278,42 +1284,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -1328,18 +1334,18 @@
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="56">
         <v>45910</v>
       </c>
-      <c r="D5" s="29">
-        <v>45911</v>
+      <c r="D5" s="56">
+        <v>45912</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>57</v>
@@ -1347,154 +1353,154 @@
       <c r="F5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="54">
-        <v>45910</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="47" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="69"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="71"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59">
+        <v>45910</v>
+      </c>
       <c r="E7" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="69"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="13"/>
       <c r="E9" s="20"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="69"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="29">
+        <v>45910</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="31">
-        <v>45910</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="59">
+        <v>45911</v>
+      </c>
+      <c r="D11" s="49">
+        <v>45911</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="54">
+      <c r="G11" s="71"/>
+      <c r="H11" s="74"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="48">
         <v>45911</v>
       </c>
-      <c r="D11" s="31">
-        <v>45911</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="30">
-        <v>45911</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="69"/>
+      <c r="F12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="37">
+        <v>45911</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="39">
-        <v>45911</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="70"/>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>8</v>
@@ -1509,110 +1515,110 @@
         <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="17"/>
       <c r="E16" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>36</v>
+      <c r="H16" s="31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="43" t="s">
-        <v>50</v>
+      <c r="E17" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="42" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="13"/>
       <c r="E18" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="13"/>
       <c r="E19" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="13"/>
       <c r="E20" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="44" t="s">
-        <v>52</v>
+      <c r="E21" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>8</v>
@@ -1627,27 +1633,27 @@
         <v>12</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="41">
+      <c r="C24" s="36"/>
+      <c r="D24" s="39">
         <v>45911</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1657,8 +1663,8 @@
       <c r="D25" s="13"/>
       <c r="E25" s="20"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1668,8 +1674,8 @@
       <c r="D26" s="13"/>
       <c r="E26" s="20"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -1677,8 +1683,8 @@
       <c r="D27" s="13"/>
       <c r="E27" s="20"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
@@ -1686,8 +1692,8 @@
       <c r="D28" s="13"/>
       <c r="E28" s="20"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
@@ -1699,7 +1705,7 @@
       <c r="H29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="C5:C10"/>
@@ -1708,7 +1714,8 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="G5:G13"/>
     <mergeCell ref="H5:H13"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1733,132 +1740,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="51">
+      <c r="B4" s="56">
         <v>45911</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="56">
         <v>45911</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="77"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="78"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="78"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="77"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="78"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="77"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="78"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="77"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="78"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="78"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="77"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="78"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="78"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="77"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="78"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="77"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="78"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="77"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="78"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="77"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="78"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="79"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="80"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
